--- a/Template/Export/Sari_R3_17.xlsx
+++ b/Template/Export/Sari_R3_17.xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$Q$62</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -281,6 +281,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -291,15 +300,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -367,9 +367,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.1263488782800249E-2"/>
+          <c:x val="6.7034907434810165E-2"/>
           <c:y val="0.10358072853731183"/>
-          <c:w val="0.93409805671226198"/>
+          <c:w val="0.9083266110061895"/>
           <c:h val="0.74920984413151193"/>
         </c:manualLayout>
       </c:layout>
@@ -612,12 +612,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="415000352"/>
-        <c:axId val="415008512"/>
+        <c:axId val="73006528"/>
+        <c:axId val="73007072"/>
         <c:extLst/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="415000352"/>
+        <c:axId val="73006528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -627,7 +627,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="415008512"/>
+        <c:crossAx val="73007072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -635,13 +635,39 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="415008512"/>
+        <c:axId val="73007072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1100"/>
+                  <a:t>Number of SARI cases</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="8.8852201044592495E-3"/>
+              <c:y val="0.32735754657024357"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -651,7 +677,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="415000352"/>
+        <c:crossAx val="73006528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -662,8 +688,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.9283075424884375E-2"/>
-          <c:y val="0.92225414793894045"/>
+          <c:x val="7.0134209085325264E-2"/>
+          <c:y val="0.91368883359527608"/>
           <c:w val="0.89999996795925097"/>
           <c:h val="5.1628612466286722E-2"/>
         </c:manualLayout>
@@ -1007,7 +1033,7 @@
   <dimension ref="B1:P60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B1" sqref="B1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1015,47 +1041,47 @@
     <col min="1" max="1" width="3.5703125" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" style="17" customWidth="1"/>
     <col min="3" max="3" width="10" style="17" customWidth="1"/>
-    <col min="4" max="4" width="10" style="24" customWidth="1"/>
+    <col min="4" max="4" width="10" style="20" customWidth="1"/>
     <col min="5" max="9" width="10" style="17" customWidth="1"/>
     <col min="10" max="11" width="12.140625" style="17" customWidth="1"/>
     <col min="12" max="16" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
     </row>
     <row r="2" spans="2:16" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
     </row>
     <row r="3" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="9" t="s">
@@ -1066,21 +1092,21 @@
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
       <c r="K3"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
       <c r="I4" s="16"/>
       <c r="J4"/>
       <c r="K4" s="2"/>
@@ -1138,15 +1164,15 @@
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="15"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
       <c r="E7" s="13"/>
       <c r="F7" s="15"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="23"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="19"/>
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
@@ -1155,15 +1181,15 @@
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="15"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="13"/>
       <c r="F8" s="15"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="23"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="19"/>
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
@@ -1172,15 +1198,15 @@
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="15"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="13"/>
       <c r="F9" s="15"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="23"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="19"/>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
       <c r="N9" s="11"/>
@@ -1189,15 +1215,15 @@
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="15"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="13"/>
       <c r="F10" s="15"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="23"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="19"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
@@ -1206,15 +1232,15 @@
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="15"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="13"/>
       <c r="F11" s="15"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="23"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="19"/>
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
@@ -1223,15 +1249,15 @@
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="15"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
       <c r="E12" s="13"/>
       <c r="F12" s="15"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="23"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="19"/>
       <c r="L12" s="11"/>
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
@@ -1240,15 +1266,15 @@
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="15"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
       <c r="E13" s="13"/>
       <c r="F13" s="15"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="23"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="19"/>
       <c r="L13" s="11"/>
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
@@ -1257,15 +1283,15 @@
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="15"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
       <c r="E14" s="13"/>
       <c r="F14" s="15"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="23"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="19"/>
       <c r="L14" s="11"/>
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
@@ -1274,15 +1300,15 @@
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="15"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
       <c r="E15" s="13"/>
       <c r="F15" s="15"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="23"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="19"/>
       <c r="L15" s="11"/>
       <c r="M15" s="11"/>
       <c r="N15" s="11"/>
@@ -1291,15 +1317,15 @@
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="15"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
       <c r="E16" s="13"/>
       <c r="F16" s="15"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="23"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="19"/>
       <c r="L16" s="11"/>
       <c r="M16" s="11"/>
       <c r="N16" s="11"/>
@@ -1308,15 +1334,15 @@
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
       <c r="E17" s="13"/>
       <c r="F17" s="15"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="23"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="19"/>
       <c r="L17" s="11"/>
       <c r="M17" s="11"/>
       <c r="N17" s="11"/>
@@ -1325,15 +1351,15 @@
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="15"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
       <c r="E18" s="13"/>
       <c r="F18" s="15"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="23"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="19"/>
       <c r="L18" s="11"/>
       <c r="M18" s="11"/>
       <c r="N18" s="11"/>
@@ -1342,15 +1368,15 @@
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="15"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
       <c r="E19" s="13"/>
       <c r="F19" s="15"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="23"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="19"/>
       <c r="L19" s="11"/>
       <c r="M19" s="11"/>
       <c r="N19" s="11"/>
@@ -1359,15 +1385,15 @@
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="15"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
       <c r="E20" s="13"/>
       <c r="F20" s="15"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="23"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="19"/>
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
       <c r="N20" s="11"/>
@@ -1376,15 +1402,15 @@
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="15"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
       <c r="E21" s="13"/>
       <c r="F21" s="15"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="23"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="19"/>
       <c r="L21" s="11"/>
       <c r="M21" s="11"/>
       <c r="N21" s="11"/>
@@ -1393,15 +1419,15 @@
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" s="15"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
       <c r="E22" s="13"/>
       <c r="F22" s="15"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="23"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="19"/>
       <c r="L22" s="11"/>
       <c r="M22" s="11"/>
       <c r="N22" s="11"/>
@@ -1410,15 +1436,15 @@
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="15"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
       <c r="E23" s="13"/>
       <c r="F23" s="15"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="23"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="19"/>
       <c r="L23" s="11"/>
       <c r="M23" s="11"/>
       <c r="N23" s="11"/>
@@ -1427,15 +1453,15 @@
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" s="15"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
       <c r="E24" s="13"/>
       <c r="F24" s="15"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="23"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="19"/>
       <c r="L24" s="11"/>
       <c r="M24" s="11"/>
       <c r="N24" s="11"/>
@@ -1444,15 +1470,15 @@
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" s="15"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
       <c r="E25" s="13"/>
       <c r="F25" s="15"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="23"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="19"/>
       <c r="L25" s="11"/>
       <c r="M25" s="11"/>
       <c r="N25" s="11"/>
@@ -1461,15 +1487,15 @@
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26" s="15"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
       <c r="E26" s="13"/>
       <c r="F26" s="15"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="23"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="19"/>
       <c r="L26" s="11"/>
       <c r="M26" s="11"/>
       <c r="N26" s="11"/>
@@ -1478,15 +1504,15 @@
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B27" s="15"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
       <c r="E27" s="13"/>
       <c r="F27" s="15"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="23"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="19"/>
       <c r="L27" s="11"/>
       <c r="M27" s="11"/>
       <c r="N27" s="11"/>
@@ -1495,15 +1521,15 @@
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28" s="15"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
       <c r="E28" s="13"/>
       <c r="F28" s="15"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="23"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="19"/>
       <c r="L28" s="11"/>
       <c r="M28" s="11"/>
       <c r="N28" s="11"/>
@@ -1512,15 +1538,15 @@
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B29" s="15"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
       <c r="E29" s="13"/>
       <c r="F29" s="15"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="23"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="19"/>
       <c r="L29" s="11"/>
       <c r="M29" s="11"/>
       <c r="N29" s="11"/>
@@ -1529,15 +1555,15 @@
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30" s="15"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
       <c r="E30" s="13"/>
       <c r="F30" s="15"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="23"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="19"/>
       <c r="L30" s="11"/>
       <c r="M30" s="11"/>
       <c r="N30" s="11"/>
@@ -1546,15 +1572,15 @@
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31" s="15"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
       <c r="E31" s="13"/>
       <c r="F31" s="15"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="23"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="19"/>
       <c r="L31" s="11"/>
       <c r="M31" s="11"/>
       <c r="N31" s="11"/>
@@ -1563,15 +1589,15 @@
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32" s="15"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
       <c r="E32" s="13"/>
       <c r="F32" s="15"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="23"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="19"/>
       <c r="L32" s="11"/>
       <c r="M32" s="11"/>
       <c r="N32" s="11"/>
@@ -1580,15 +1606,15 @@
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B33" s="15"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
       <c r="E33" s="13"/>
       <c r="F33" s="15"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="23"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="19"/>
       <c r="L33" s="11"/>
       <c r="M33" s="11"/>
       <c r="N33" s="11"/>
@@ -1597,15 +1623,15 @@
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B34" s="15"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
       <c r="E34" s="13"/>
       <c r="F34" s="15"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="23"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="19"/>
       <c r="L34" s="11"/>
       <c r="M34" s="11"/>
       <c r="N34" s="11"/>
@@ -1614,15 +1640,15 @@
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B35" s="15"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
       <c r="E35" s="13"/>
       <c r="F35" s="15"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="23"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="19"/>
       <c r="L35" s="11"/>
       <c r="M35" s="11"/>
       <c r="N35" s="11"/>
@@ -1631,15 +1657,15 @@
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B36" s="15"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
       <c r="E36" s="13"/>
       <c r="F36" s="15"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="23"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="19"/>
       <c r="L36" s="11"/>
       <c r="M36" s="11"/>
       <c r="N36" s="11"/>
@@ -1648,15 +1674,15 @@
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B37" s="15"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
       <c r="E37" s="13"/>
       <c r="F37" s="15"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="23"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="19"/>
       <c r="L37" s="11"/>
       <c r="M37" s="11"/>
       <c r="N37" s="11"/>
@@ -1665,15 +1691,15 @@
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" s="15"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
       <c r="E38" s="13"/>
       <c r="F38" s="15"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="23"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="19"/>
       <c r="L38" s="11"/>
       <c r="M38" s="11"/>
       <c r="N38" s="11"/>
@@ -1682,15 +1708,15 @@
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B39" s="15"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
       <c r="E39" s="13"/>
       <c r="F39" s="15"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="23"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="19"/>
       <c r="L39" s="11"/>
       <c r="M39" s="11"/>
       <c r="N39" s="11"/>
@@ -1699,15 +1725,15 @@
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B40" s="15"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
       <c r="E40" s="13"/>
       <c r="F40" s="15"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="23"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="19"/>
       <c r="L40" s="11"/>
       <c r="M40" s="11"/>
       <c r="N40" s="11"/>
@@ -1716,15 +1742,15 @@
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B41" s="15"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
       <c r="E41" s="13"/>
       <c r="F41" s="15"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="23"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="19"/>
       <c r="L41" s="11"/>
       <c r="M41" s="11"/>
       <c r="N41" s="11"/>
@@ -1733,15 +1759,15 @@
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B42" s="15"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
       <c r="E42" s="13"/>
       <c r="F42" s="15"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="23"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="19"/>
       <c r="L42" s="11"/>
       <c r="M42" s="11"/>
       <c r="N42" s="11"/>
@@ -1750,15 +1776,15 @@
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B43" s="15"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
       <c r="E43" s="13"/>
       <c r="F43" s="15"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="23"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="19"/>
       <c r="L43" s="11"/>
       <c r="M43" s="11"/>
       <c r="N43" s="11"/>
@@ -1767,15 +1793,15 @@
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B44" s="15"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
       <c r="E44" s="13"/>
       <c r="F44" s="15"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="23"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="19"/>
       <c r="L44" s="11"/>
       <c r="M44" s="11"/>
       <c r="N44" s="11"/>
@@ -1784,15 +1810,15 @@
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B45" s="15"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
       <c r="E45" s="13"/>
       <c r="F45" s="15"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="23"/>
-      <c r="J45" s="22"/>
-      <c r="K45" s="23"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="19"/>
       <c r="L45" s="11"/>
       <c r="M45" s="11"/>
       <c r="N45" s="11"/>
@@ -1801,15 +1827,15 @@
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B46" s="15"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
       <c r="E46" s="13"/>
       <c r="F46" s="15"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="23"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="19"/>
       <c r="L46" s="11"/>
       <c r="M46" s="11"/>
       <c r="N46" s="11"/>
@@ -1818,15 +1844,15 @@
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B47" s="15"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
       <c r="E47" s="13"/>
       <c r="F47" s="15"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="22"/>
-      <c r="K47" s="23"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="18"/>
+      <c r="K47" s="19"/>
       <c r="L47" s="11"/>
       <c r="M47" s="11"/>
       <c r="N47" s="11"/>
@@ -1835,15 +1861,15 @@
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B48" s="15"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
       <c r="E48" s="13"/>
       <c r="F48" s="15"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="23"/>
-      <c r="J48" s="22"/>
-      <c r="K48" s="23"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="18"/>
+      <c r="K48" s="19"/>
       <c r="L48" s="11"/>
       <c r="M48" s="11"/>
       <c r="N48" s="11"/>
@@ -1852,15 +1878,15 @@
     </row>
     <row r="49" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B49" s="15"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
       <c r="E49" s="13"/>
       <c r="F49" s="15"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="23"/>
-      <c r="J49" s="22"/>
-      <c r="K49" s="23"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="19"/>
       <c r="L49" s="11"/>
       <c r="M49" s="11"/>
       <c r="N49" s="11"/>
@@ -1869,15 +1895,15 @@
     </row>
     <row r="50" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B50" s="15"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
       <c r="E50" s="13"/>
       <c r="F50" s="15"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="23"/>
-      <c r="J50" s="22"/>
-      <c r="K50" s="23"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="19"/>
       <c r="L50" s="11"/>
       <c r="M50" s="11"/>
       <c r="N50" s="11"/>
@@ -1886,15 +1912,15 @@
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B51" s="15"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
       <c r="E51" s="13"/>
       <c r="F51" s="15"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="23"/>
-      <c r="I51" s="23"/>
-      <c r="J51" s="22"/>
-      <c r="K51" s="23"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="19"/>
       <c r="L51" s="11"/>
       <c r="M51" s="11"/>
       <c r="N51" s="11"/>
@@ -1903,15 +1929,15 @@
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B52" s="15"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
       <c r="E52" s="13"/>
       <c r="F52" s="15"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="23"/>
-      <c r="I52" s="23"/>
-      <c r="J52" s="22"/>
-      <c r="K52" s="23"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="18"/>
+      <c r="K52" s="19"/>
       <c r="L52" s="11"/>
       <c r="M52" s="11"/>
       <c r="N52" s="11"/>
@@ -1920,15 +1946,15 @@
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B53" s="15"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
       <c r="E53" s="13"/>
       <c r="F53" s="15"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="23"/>
-      <c r="I53" s="23"/>
-      <c r="J53" s="22"/>
-      <c r="K53" s="23"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="19"/>
       <c r="L53" s="11"/>
       <c r="M53" s="11"/>
       <c r="N53" s="11"/>
@@ -1937,15 +1963,15 @@
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B54" s="15"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
       <c r="E54" s="13"/>
       <c r="F54" s="15"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="23"/>
-      <c r="I54" s="23"/>
-      <c r="J54" s="22"/>
-      <c r="K54" s="23"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="18"/>
+      <c r="K54" s="19"/>
       <c r="L54" s="11"/>
       <c r="M54" s="11"/>
       <c r="N54" s="11"/>
@@ -1954,15 +1980,15 @@
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B55" s="15"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
       <c r="E55" s="13"/>
       <c r="F55" s="15"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="23"/>
-      <c r="I55" s="23"/>
-      <c r="J55" s="22"/>
-      <c r="K55" s="23"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="18"/>
+      <c r="K55" s="19"/>
       <c r="L55" s="11"/>
       <c r="M55" s="11"/>
       <c r="N55" s="11"/>
@@ -1971,15 +1997,15 @@
     </row>
     <row r="56" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B56" s="15"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
       <c r="E56" s="13"/>
       <c r="F56" s="15"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="23"/>
-      <c r="I56" s="23"/>
-      <c r="J56" s="22"/>
-      <c r="K56" s="23"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="18"/>
+      <c r="K56" s="19"/>
       <c r="L56" s="11"/>
       <c r="M56" s="11"/>
       <c r="N56" s="11"/>
@@ -1988,15 +2014,15 @@
     </row>
     <row r="57" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B57" s="15"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
       <c r="E57" s="13"/>
       <c r="F57" s="15"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="23"/>
-      <c r="I57" s="23"/>
-      <c r="J57" s="22"/>
-      <c r="K57" s="23"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="18"/>
+      <c r="K57" s="19"/>
       <c r="L57" s="11"/>
       <c r="M57" s="11"/>
       <c r="N57" s="11"/>
@@ -2005,15 +2031,15 @@
     </row>
     <row r="58" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B58" s="15"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
       <c r="E58" s="13"/>
       <c r="F58" s="15"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="23"/>
-      <c r="I58" s="23"/>
-      <c r="J58" s="22"/>
-      <c r="K58" s="23"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="18"/>
+      <c r="K58" s="19"/>
       <c r="L58" s="11"/>
       <c r="M58" s="11"/>
       <c r="N58" s="11"/>
@@ -2022,15 +2048,15 @@
     </row>
     <row r="59" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B59" s="15"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="22"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
       <c r="E59" s="13"/>
       <c r="F59" s="15"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="23"/>
-      <c r="I59" s="23"/>
-      <c r="J59" s="22"/>
-      <c r="K59" s="23"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="18"/>
+      <c r="K59" s="19"/>
       <c r="L59" s="11"/>
       <c r="M59" s="11"/>
       <c r="N59" s="11"/>

--- a/Template/Export/Sari_R3_17.xlsx
+++ b/Template/Export/Sari_R3_17.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Template\Export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Template - copia\Export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -612,12 +612,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="73006528"/>
-        <c:axId val="73007072"/>
+        <c:axId val="235589120"/>
+        <c:axId val="235589664"/>
         <c:extLst/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="73006528"/>
+        <c:axId val="235589120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -627,7 +627,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73007072"/>
+        <c:crossAx val="235589664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -635,7 +635,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73007072"/>
+        <c:axId val="235589664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -677,7 +677,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="73006528"/>
+        <c:crossAx val="235589120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1032,9 +1032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:P1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Template/Export/Sari_R3_17.xlsx
+++ b/Template/Export/Sari_R3_17.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Template - copia\Export\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7305"/>
   </bookViews>
@@ -17,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$Q$62</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -305,7 +300,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,7 +325,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-GT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -612,12 +607,12 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="235589120"/>
-        <c:axId val="235589664"/>
+        <c:axId val="163001856"/>
+        <c:axId val="49919040"/>
         <c:extLst/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="235589120"/>
+        <c:axId val="163001856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -627,7 +622,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="235589664"/>
+        <c:crossAx val="49919040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -635,7 +630,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="235589664"/>
+        <c:axId val="49919040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -662,8 +657,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="8.8852201044592495E-3"/>
-              <c:y val="0.32735754657024357"/>
+              <c:x val="2.1032615666836873E-3"/>
+              <c:y val="0.33877796569512925"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -677,9 +672,10 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="235589120"/>
+        <c:crossAx val="163001856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:minorUnit val="1"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -744,7 +740,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -786,7 +782,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -821,7 +817,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1034,7 +1030,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.5703125" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" style="17" customWidth="1"/>

--- a/Template/Export/Sari_R3_17.xlsx
+++ b/Template/Export/Sari_R3_17.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Template\Export\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7305"/>
   </bookViews>
@@ -12,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$Q$62</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -67,7 +72,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -159,7 +164,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -169,6 +174,69 @@
     </border>
     <border>
       <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
@@ -182,54 +250,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -239,17 +265,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -258,17 +275,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -276,14 +284,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -297,10 +329,13 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -323,9 +358,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-GT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -396,6 +431,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7C2E-4680-8065-7D81A6406BE2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -421,6 +461,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7C2E-4680-8065-7D81A6406BE2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -446,6 +491,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7C2E-4680-8065-7D81A6406BE2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -471,6 +521,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7C2E-4680-8065-7D81A6406BE2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -496,6 +551,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7C2E-4680-8065-7D81A6406BE2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -521,6 +581,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-7C2E-4680-8065-7D81A6406BE2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -546,6 +611,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-7C2E-4680-8065-7D81A6406BE2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -571,6 +641,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-7C2E-4680-8065-7D81A6406BE2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
@@ -596,6 +671,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-7C2E-4680-8065-7D81A6406BE2}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -740,7 +820,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -782,7 +862,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -817,7 +897,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1026,59 +1106,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P60"/>
+  <dimension ref="A1:P60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="17" customWidth="1"/>
-    <col min="3" max="3" width="10" style="17" customWidth="1"/>
-    <col min="4" max="4" width="10" style="20" customWidth="1"/>
-    <col min="5" max="9" width="10" style="17" customWidth="1"/>
-    <col min="10" max="11" width="12.140625" style="17" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="10" style="11" customWidth="1"/>
+    <col min="4" max="4" width="10" style="12" customWidth="1"/>
+    <col min="5" max="9" width="10" style="11" customWidth="1"/>
+    <col min="10" max="11" width="12.140625" style="11" customWidth="1"/>
     <col min="12" max="16" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-    </row>
-    <row r="2" spans="2:16" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="24" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+    </row>
+    <row r="2" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-    </row>
-    <row r="3" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="9" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+    </row>
+    <row r="3" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C3"/>
@@ -1086,27 +1166,27 @@
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
       <c r="K3"/>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="21" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B4" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="16"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="10"/>
       <c r="J4"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="14" t="s">
+    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="3"/>
@@ -1115,993 +1195,1100 @@
       <c r="F5" s="4"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="16"/>
+      <c r="I5" s="10"/>
       <c r="J5"/>
       <c r="K5"/>
     </row>
-    <row r="6" spans="2:16" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
+    <row r="6" spans="1:16" s="5" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="27"/>
+      <c r="B6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="15"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="15"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="15"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="15"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="15"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="15"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="15"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="15"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="15"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="15"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B7" s="13">
+        <v>1</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="13">
+        <v>2</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="13">
+        <v>3</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="13">
+        <v>4</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="13">
+        <v>5</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="13">
+        <v>6</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="13">
+        <v>7</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="13">
+        <v>8</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B15" s="13">
+        <v>9</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B16" s="13">
+        <v>10</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B17" s="15"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
+      <c r="B17" s="13">
+        <v>11</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="15"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
+      <c r="B18" s="13">
+        <v>12</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="15"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
+      <c r="B19" s="13">
+        <v>13</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="15"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
+      <c r="B20" s="13">
+        <v>14</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="15"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
+      <c r="B21" s="13">
+        <v>15</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B22" s="15"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
+      <c r="B22" s="13">
+        <v>16</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="15"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
+      <c r="B23" s="13">
+        <v>17</v>
+      </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B24" s="15"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
+      <c r="B24" s="13">
+        <v>18</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B25" s="15"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
+      <c r="B25" s="13">
+        <v>19</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B26" s="15"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
+      <c r="B26" s="13">
+        <v>20</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B27" s="15"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
+      <c r="B27" s="13">
+        <v>21</v>
+      </c>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B28" s="15"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
+      <c r="B28" s="13">
+        <v>22</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B29" s="15"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
+      <c r="B29" s="13">
+        <v>23</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B30" s="15"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
+      <c r="B30" s="13">
+        <v>24</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B31" s="15"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
+      <c r="B31" s="13">
+        <v>25</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B32" s="15"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11"/>
+      <c r="B32" s="13">
+        <v>26</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B33" s="15"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
+      <c r="B33" s="13">
+        <v>27</v>
+      </c>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B34" s="15"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
+      <c r="B34" s="13">
+        <v>28</v>
+      </c>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B35" s="15"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="11"/>
+      <c r="B35" s="13">
+        <v>29</v>
+      </c>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B36" s="15"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="11"/>
-      <c r="P36" s="11"/>
+      <c r="B36" s="13">
+        <v>30</v>
+      </c>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B37" s="15"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="11"/>
-      <c r="N37" s="11"/>
-      <c r="O37" s="11"/>
-      <c r="P37" s="11"/>
+      <c r="B37" s="13">
+        <v>31</v>
+      </c>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B38" s="15"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="11"/>
-      <c r="P38" s="11"/>
+      <c r="B38" s="13">
+        <v>32</v>
+      </c>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B39" s="15"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="11"/>
-      <c r="N39" s="11"/>
-      <c r="O39" s="11"/>
-      <c r="P39" s="11"/>
+      <c r="B39" s="13">
+        <v>33</v>
+      </c>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B40" s="15"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="11"/>
-      <c r="M40" s="11"/>
-      <c r="N40" s="11"/>
-      <c r="O40" s="11"/>
-      <c r="P40" s="11"/>
+      <c r="B40" s="13">
+        <v>34</v>
+      </c>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B41" s="15"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="11"/>
-      <c r="M41" s="11"/>
-      <c r="N41" s="11"/>
-      <c r="O41" s="11"/>
-      <c r="P41" s="11"/>
+      <c r="B41" s="13">
+        <v>35</v>
+      </c>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B42" s="15"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="19"/>
-      <c r="L42" s="11"/>
-      <c r="M42" s="11"/>
-      <c r="N42" s="11"/>
-      <c r="O42" s="11"/>
-      <c r="P42" s="11"/>
+      <c r="B42" s="13">
+        <v>36</v>
+      </c>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B43" s="15"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="18"/>
-      <c r="K43" s="19"/>
-      <c r="L43" s="11"/>
-      <c r="M43" s="11"/>
-      <c r="N43" s="11"/>
-      <c r="O43" s="11"/>
-      <c r="P43" s="11"/>
+      <c r="B43" s="13">
+        <v>37</v>
+      </c>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B44" s="15"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="18"/>
-      <c r="K44" s="19"/>
-      <c r="L44" s="11"/>
-      <c r="M44" s="11"/>
-      <c r="N44" s="11"/>
-      <c r="O44" s="11"/>
-      <c r="P44" s="11"/>
+      <c r="B44" s="13">
+        <v>38</v>
+      </c>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B45" s="15"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="18"/>
-      <c r="K45" s="19"/>
-      <c r="L45" s="11"/>
-      <c r="M45" s="11"/>
-      <c r="N45" s="11"/>
-      <c r="O45" s="11"/>
-      <c r="P45" s="11"/>
+      <c r="B45" s="13">
+        <v>39</v>
+      </c>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="8"/>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B46" s="15"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="18"/>
-      <c r="K46" s="19"/>
-      <c r="L46" s="11"/>
-      <c r="M46" s="11"/>
-      <c r="N46" s="11"/>
-      <c r="O46" s="11"/>
-      <c r="P46" s="11"/>
+      <c r="B46" s="13">
+        <v>40</v>
+      </c>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B47" s="15"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="18"/>
-      <c r="K47" s="19"/>
-      <c r="L47" s="11"/>
-      <c r="M47" s="11"/>
-      <c r="N47" s="11"/>
-      <c r="O47" s="11"/>
-      <c r="P47" s="11"/>
+      <c r="B47" s="13">
+        <v>41</v>
+      </c>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="8"/>
+      <c r="P47" s="8"/>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B48" s="15"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="18"/>
-      <c r="K48" s="19"/>
-      <c r="L48" s="11"/>
-      <c r="M48" s="11"/>
-      <c r="N48" s="11"/>
-      <c r="O48" s="11"/>
-      <c r="P48" s="11"/>
+      <c r="B48" s="13">
+        <v>42</v>
+      </c>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="8"/>
     </row>
     <row r="49" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B49" s="15"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="18"/>
-      <c r="K49" s="19"/>
-      <c r="L49" s="11"/>
-      <c r="M49" s="11"/>
-      <c r="N49" s="11"/>
-      <c r="O49" s="11"/>
-      <c r="P49" s="11"/>
+      <c r="B49" s="13">
+        <v>43</v>
+      </c>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="16"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
     </row>
     <row r="50" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B50" s="15"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="18"/>
-      <c r="K50" s="19"/>
-      <c r="L50" s="11"/>
-      <c r="M50" s="11"/>
-      <c r="N50" s="11"/>
-      <c r="O50" s="11"/>
-      <c r="P50" s="11"/>
+      <c r="B50" s="13">
+        <v>44</v>
+      </c>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="16"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="8"/>
+      <c r="O50" s="8"/>
+      <c r="P50" s="8"/>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B51" s="15"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="18"/>
-      <c r="K51" s="19"/>
-      <c r="L51" s="11"/>
-      <c r="M51" s="11"/>
-      <c r="N51" s="11"/>
-      <c r="O51" s="11"/>
-      <c r="P51" s="11"/>
+      <c r="B51" s="13">
+        <v>45</v>
+      </c>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="14"/>
+      <c r="K51" s="16"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="8"/>
+      <c r="O51" s="8"/>
+      <c r="P51" s="8"/>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B52" s="15"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="18"/>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="18"/>
-      <c r="K52" s="19"/>
-      <c r="L52" s="11"/>
-      <c r="M52" s="11"/>
-      <c r="N52" s="11"/>
-      <c r="O52" s="11"/>
-      <c r="P52" s="11"/>
+      <c r="B52" s="13">
+        <v>46</v>
+      </c>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="16"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8"/>
+      <c r="O52" s="8"/>
+      <c r="P52" s="8"/>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B53" s="15"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="18"/>
-      <c r="K53" s="19"/>
-      <c r="L53" s="11"/>
-      <c r="M53" s="11"/>
-      <c r="N53" s="11"/>
-      <c r="O53" s="11"/>
-      <c r="P53" s="11"/>
+      <c r="B53" s="13">
+        <v>47</v>
+      </c>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="16"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="8"/>
+      <c r="O53" s="8"/>
+      <c r="P53" s="8"/>
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B54" s="15"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="18"/>
-      <c r="K54" s="19"/>
-      <c r="L54" s="11"/>
-      <c r="M54" s="11"/>
-      <c r="N54" s="11"/>
-      <c r="O54" s="11"/>
-      <c r="P54" s="11"/>
+      <c r="B54" s="13">
+        <v>48</v>
+      </c>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="16"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="8"/>
+      <c r="O54" s="8"/>
+      <c r="P54" s="8"/>
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B55" s="15"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="13"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="18"/>
-      <c r="K55" s="19"/>
-      <c r="L55" s="11"/>
-      <c r="M55" s="11"/>
-      <c r="N55" s="11"/>
-      <c r="O55" s="11"/>
-      <c r="P55" s="11"/>
+      <c r="B55" s="13">
+        <v>49</v>
+      </c>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="14"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="8"/>
+      <c r="O55" s="8"/>
+      <c r="P55" s="8"/>
     </row>
     <row r="56" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B56" s="15"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="18"/>
-      <c r="K56" s="19"/>
-      <c r="L56" s="11"/>
-      <c r="M56" s="11"/>
-      <c r="N56" s="11"/>
-      <c r="O56" s="11"/>
-      <c r="P56" s="11"/>
+      <c r="B56" s="13">
+        <v>50</v>
+      </c>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="14"/>
+      <c r="K56" s="16"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="8"/>
+      <c r="O56" s="8"/>
+      <c r="P56" s="8"/>
     </row>
     <row r="57" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B57" s="15"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="18"/>
-      <c r="K57" s="19"/>
-      <c r="L57" s="11"/>
-      <c r="M57" s="11"/>
-      <c r="N57" s="11"/>
-      <c r="O57" s="11"/>
-      <c r="P57" s="11"/>
+      <c r="B57" s="13">
+        <v>51</v>
+      </c>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="14"/>
+      <c r="K57" s="16"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="8"/>
+      <c r="O57" s="8"/>
+      <c r="P57" s="8"/>
     </row>
     <row r="58" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B58" s="15"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="18"/>
-      <c r="K58" s="19"/>
-      <c r="L58" s="11"/>
-      <c r="M58" s="11"/>
-      <c r="N58" s="11"/>
-      <c r="O58" s="11"/>
-      <c r="P58" s="11"/>
-    </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B59" s="15"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="18"/>
-      <c r="K59" s="19"/>
-      <c r="L59" s="11"/>
-      <c r="M59" s="11"/>
-      <c r="N59" s="11"/>
-      <c r="O59" s="11"/>
-      <c r="P59" s="11"/>
-    </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B60" s="5" t="s">
+      <c r="B58" s="13">
+        <v>52</v>
+      </c>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="14"/>
+      <c r="J58" s="14"/>
+      <c r="K58" s="16"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="8"/>
+      <c r="N58" s="8"/>
+      <c r="O58" s="8"/>
+      <c r="P58" s="8"/>
+    </row>
+    <row r="59" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="13">
+        <v>53</v>
+      </c>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="14"/>
+      <c r="J59" s="14"/>
+      <c r="K59" s="16"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="8"/>
+      <c r="N59" s="8"/>
+      <c r="O59" s="8"/>
+      <c r="P59" s="8"/>
+    </row>
+    <row r="60" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C60" s="6">
+      <c r="C60" s="20">
         <f t="shared" ref="C60:K60" si="0">SUM(C7:C59)</f>
         <v>0</v>
       </c>
-      <c r="D60" s="6">
+      <c r="D60" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E60" s="12">
+      <c r="E60" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F60" s="12">
+      <c r="F60" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G60" s="12">
+      <c r="G60" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H60" s="12">
+      <c r="H60" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I60" s="12">
+      <c r="I60" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J60" s="12">
+      <c r="J60" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K60" s="12">
+      <c r="K60" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L60" s="10"/>
-      <c r="M60" s="10"/>
-      <c r="N60" s="10"/>
-      <c r="O60" s="10"/>
-      <c r="P60" s="10"/>
+      <c r="L60" s="7"/>
+      <c r="M60" s="7"/>
+      <c r="N60" s="7"/>
+      <c r="O60" s="7"/>
+      <c r="P60" s="7"/>
     </row>
   </sheetData>
   <sortState ref="B21:C33">
@@ -2114,7 +2301,7 @@
     <mergeCell ref="B2:P2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="62" orientation="landscape" horizontalDpi="4294967293" verticalDpi="300"/>
-  <drawing r:id="rId1"/>
+  <pageSetup scale="62" orientation="landscape" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>